--- a/data/Locations 1 (3).xlsx
+++ b/data/Locations 1 (3).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\UOBlandscapes-api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{E6C8310B-5748-494F-B50F-E593B6A23F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC69B66D-9FE4-4DCD-BF24-77912EFF6035}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A07F9A7-8273-41F7-9163-32208790D29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Location type</t>
   </si>
   <si>
-    <t>Location number</t>
-  </si>
-  <si>
     <t>Location name</t>
   </si>
   <si>
@@ -435,13 +432,16 @@
   </si>
   <si>
     <t>https://i.postimg.cc/26Q1DBXv/Eastern-Gate.jpg</t>
+  </si>
+  <si>
+    <t>Location Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,628 +807,625 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="53.28515625" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="5" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="5" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="5" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="5" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="5" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="5" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="5" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="5" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>56</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="5" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>59</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="5" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>62</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="5" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>65</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="5" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>68</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="5" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>71</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="5" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>74</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="5" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>77</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="5" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>80</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="5" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>83</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="5" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>86</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="5" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>89</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="5" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>92</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="5" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>95</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="5" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C33" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="5" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="5" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>103</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="5" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>106</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="5" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>109</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="5" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>112</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="5" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15">
-      <c r="A39" s="3" t="s">
+      <c r="B39" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" t="s">
         <v>116</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="5" t="s">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>119</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>120</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="5" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>123</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D41" s="5" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15">
-      <c r="A42" t="s">
-        <v>123</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>127</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="5" t="s">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15">
-      <c r="A43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>130</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15"/>
-    <row r="45" spans="1:4" ht="15"/>
-    <row r="46" spans="1:4" ht="15"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D43">
     <sortCondition ref="A2:A43"/>
